--- a/trabFinal (1)/trabalhoFinal/DadosProjetoTp1_saida.xlsx
+++ b/trabFinal (1)/trabalhoFinal/DadosProjetoTp1_saida.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,54 +21,39 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
-  <si>
-    <t>sfgh</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="11">
+  <si>
+    <t>weldo</t>
+  </si>
+  <si>
+    <t>enend</t>
   </si>
   <si>
     <t>111.111.111-11</t>
   </si>
   <si>
-    <t>cccc</t>
-  </si>
-  <si>
-    <t>gbujbj</t>
-  </si>
-  <si>
-    <t>bibknb</t>
+    <t>1</t>
   </si>
   <si>
     <t>11/11/1111</t>
   </si>
   <si>
-    <t>ini</t>
-  </si>
-  <si>
-    <t>weldo</t>
-  </si>
-  <si>
-    <t>fnefinfnnfuin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  /  /    </t>
-  </si>
-  <si>
     <t>11111111</t>
   </si>
   <si>
-    <t>fernando</t>
-  </si>
-  <si>
-    <t>ejjiccjjcm</t>
+    <t>12345</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>joao</t>
   </si>
   <si>
     <t>222.222.222-22</t>
   </si>
   <si>
-    <t>22/22/2222</t>
-  </si>
-  <si>
-    <t>22222222222</t>
+    <t>atendente</t>
   </si>
 </sst>
 </file>
@@ -168,7 +153,7 @@
   </sheetPr>
   <dimension ref="A2:F2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -176,22 +161,22 @@
   <sheetData>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>13</v>
-      </c>
-      <c r="D2" t="n" s="0">
-        <v>1.0</v>
+        <v>2</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>3</v>
       </c>
       <c r="E2" t="s" s="0">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="F2" t="s" s="0">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -210,9 +195,9 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:F2"/>
+  <dimension ref="A2:E2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -226,16 +211,13 @@
         <v>8</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="E2" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="F2" t="s" s="0">
+      <c r="D2" t="s" s="0">
         <v>10</v>
+      </c>
+      <c r="E2" t="n" s="0">
+        <v>1200.0</v>
       </c>
     </row>
   </sheetData>
